--- a/scopus/Gamification_AND_Education/artigosEscolhidos.xlsx
+++ b/scopus/Gamification_AND_Education/artigosEscolhidos.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriano2.Adriano\Documents\cristiano\Doutorado\2020\projeto\bibliometria\biliometria-doutorado\scopus\Gamification_AND_Education\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId3"/>
+    <sheet name="Plan2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Planilha1 (2)'!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>Gamifying learning experiences: practical implications and outcomes (DOMÍNGUEZ et al, 2013)</t>
   </si>
@@ -366,12 +363,33 @@
   </si>
   <si>
     <t>Revisão</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>educação</t>
+  </si>
+  <si>
+    <t>saúde</t>
+  </si>
+  <si>
+    <t>negócios</t>
+  </si>
+  <si>
+    <t>engenharia</t>
+  </si>
+  <si>
+    <t>cidades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,6 +488,334 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$B$9:$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>educação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>negócios</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>saúde</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>engenharia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Segundo</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="20"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>educação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>negócios</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>saúde</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>engenharia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -513,7 +859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -548,7 +894,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -725,7 +1071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">VLOOKUP(A3,$A$12:$A$21,1,0)</f>
+        <f t="shared" ref="C3:C11" si="0">VLOOKUP(A3,$A$12:$A$21,1,0)</f>
         <v>Gamification in theory and action: A survey (SEABORN e FELS, 2015)</v>
       </c>
     </row>
@@ -1003,11 +1349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,4 +1506,123 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>